--- a/problems.xlsx
+++ b/problems.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新元顥22\其他2\20240408 strands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A6DBA4-CC21-47C0-9CB7-C4872BF7DA47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF2BE8D-DD7E-4D85-A4E3-9E5D06898C84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guess what" sheetId="1" r:id="rId1"/>
     <sheet name="From time to time" sheetId="3" r:id="rId2"/>
     <sheet name="Go go go" sheetId="4" r:id="rId3"/>
+    <sheet name="Cough cough" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="64">
   <si>
     <t>AGROUPOFROBOTS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +223,52 @@
   </si>
   <si>
     <t>STATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PNEUMONOULTRAMICROSCOPICSILICOVOLCANOCONIOSIS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -356,6 +403,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1234,7 +1300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945582D6-6AA8-4AA8-A435-8E199CA4D59F}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
@@ -1541,4 +1607,269 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C6E1B3-AFBA-43E8-809E-5D4529C58615}">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.09765625" style="13" customWidth="1"/>
+    <col min="2" max="17" width="4" style="13" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18">
+        <v>1</v>
+      </c>
+      <c r="F1" s="18">
+        <v>2</v>
+      </c>
+      <c r="G1" s="18">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18">
+        <v>4</v>
+      </c>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="R1" s="15" t="str">
+        <f>_xlfn.CONCAT(D2:H10)</f>
+        <v>NEUONPMCIOONOSIMAONSIRTUARCILCOPCOLSOSIVCILCO</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="C5" s="18">
+        <v>3</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="C6" s="18">
+        <v>4</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="C7" s="18">
+        <v>5</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="C8" s="18">
+        <v>6</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="C9" s="18">
+        <v>7</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C10" s="18">
+        <v>8</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/problems.xlsx
+++ b/problems.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新元顥22\其他2\20240408 strands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF2BE8D-DD7E-4D85-A4E3-9E5D06898C84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F5DB50-D192-482D-89C1-1B9DF7864435}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guess what" sheetId="1" r:id="rId1"/>
     <sheet name="From time to time" sheetId="3" r:id="rId2"/>
     <sheet name="Go go go" sheetId="4" r:id="rId3"/>
     <sheet name="Cough cough" sheetId="6" r:id="rId4"/>
+    <sheet name="Rolling around" sheetId="8" r:id="rId5"/>
+    <sheet name="Tongues" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="145">
   <si>
     <t>AGROUPOFROBOTS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,6 +271,330 @@
   </si>
   <si>
     <t>PNEUMONOULTRAMICROSCOPICSILICOVOLCANOCONIOSIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崁頂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北埔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頂埔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖暖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五堵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台鐵站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄟ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄢ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄥ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄝ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄓ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每逢佳節倍思親</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄美酒夜光杯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬上相逢無紙筆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千里江陵一日還</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煙籠寒水月籠沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一夜鄉心五處同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳳凰台上鳳凰遊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心有靈犀一點通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1FAA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1FAA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F41A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F469;&amp;#x200D;&amp;#x2764;&amp;#xFE0F;&amp;#x200D;&amp;#x1F48B;&amp;#x200D;&amp;#x1F468;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F347</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F37A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F343</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F964</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F6BD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x2B06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F4E6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F21A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F595</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x270F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F46B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F9DF;&amp;#x200D;&amp;#x2642;&amp;#xFE0F;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x2600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F48D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F6AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F3EE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F4A7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x270C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x2764</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x264D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F46C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F34D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F7E8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F991</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F236</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F98F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x23FA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1FAA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F4B5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x2795</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F319</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F947</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;#x1F468;&amp;#x200D;&amp;#x1F9B2;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +602,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +614,33 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0A0A23"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0A0A23"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -366,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -422,6 +775,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,7 +1418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC74F6B-9A4E-45DC-A5E3-8AF8E0BF509F}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
@@ -1613,7 +2008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C6E1B3-AFBA-43E8-809E-5D4529C58615}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1872,4 +2267,590 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2310E8ED-A48A-42ED-B901-2B1D8523F852}">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.09765625" style="18" customWidth="1"/>
+    <col min="2" max="17" width="4" style="18" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="18">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18">
+        <v>1</v>
+      </c>
+      <c r="F1" s="18">
+        <v>2</v>
+      </c>
+      <c r="G1" s="18">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18">
+        <v>4</v>
+      </c>
+      <c r="I1" s="18">
+        <v>5</v>
+      </c>
+      <c r="R1" s="15" t="str">
+        <f>_xlfn.CONCAT(D2:I10)</f>
+        <v>ㄊㄨVㄉVㄢㄞ/VㄋㄨㄨㄏㄊㄨㄨVㄋㄨㄧVㄆㄢVㄢVㄝㄥㄧㄉVㄎㄨVㄚVㄉㄟVㄓㄊVㄧㄅㄟVㄢㄨㄥVㄆㄨV\</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="18">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="18">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="18">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="18">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="C9" s="18">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C10" s="18">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71B76EB-1B19-4AE4-966A-82CA255355ED}">
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.09765625" style="18" customWidth="1"/>
+    <col min="2" max="17" width="4" style="18" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
+      <c r="D1" s="18">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18">
+        <v>1</v>
+      </c>
+      <c r="F1" s="18">
+        <v>2</v>
+      </c>
+      <c r="G1" s="18">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18">
+        <v>4</v>
+      </c>
+      <c r="I1" s="18">
+        <v>5</v>
+      </c>
+      <c r="J1" s="18">
+        <v>6</v>
+      </c>
+      <c r="R1" s="15" t="str">
+        <f>_xlfn.TEXTJOIN("','",TRUE,D2:J9)</f>
+        <v>&amp;#x1F7E8','&amp;#x1F300','&amp;#x2B06','&amp;#x1F34D','&amp;#x1F7E8','&amp;#x1F991','&amp;#x1F4B5','&amp;#x1F34D','&amp;#x270C','&amp;#x1F4E6','&amp;#x1F195','&amp;#x1F236','&amp;#x1FAA1','&amp;#x1F6BD','&amp;#x1F947','&amp;#x1F351','&amp;#x2764','&amp;#x1F536','&amp;#x2795','&amp;#x2B06','&amp;#x1F4E6','&amp;#x1F347','&amp;#x1F4B5','&amp;#x1F590','&amp;#x1F98F','&amp;#x1FAA2','&amp;#x1FAA1','&amp;#x1F21A','&amp;#x1F37A','&amp;#x264D','&amp;#x1F947','&amp;#x23FA','&amp;#x1F988','&amp;#x1F41A','&amp;#x1F595','&amp;#x1F343','&amp;#x1F46C','&amp;#x1FAA0','&amp;#x1F409','&amp;#x1F914','&amp;#x1F46B','&amp;#x270F','&amp;#x1F526','&amp;#x1F964','&amp;#x1F319','&amp;#x1F48D','&amp;#x1F469;&amp;#x200D;&amp;#x2764;&amp;#xFE0F;&amp;#x200D;&amp;#x1F48B;&amp;#x200D;&amp;#x1F468;','&amp;#x1F381','&amp;#x1F9DF;&amp;#x200D;&amp;#x2642;&amp;#xFE0F;','&amp;#x1F6AC','&amp;#x1F3EE','&amp;#x1F468;&amp;#x200D;&amp;#x1F9B2;','&amp;#x1F4A7','&amp;#x2600','&amp;#x1F947','&amp;#x1F536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="18">
+        <v>3</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="18">
+        <v>4</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="18">
+        <v>5</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="18">
+        <v>6</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="18">
+        <v>7</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/problems.xlsx
+++ b/problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新元顥22\其他2\20240408 strands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F5DB50-D192-482D-89C1-1B9DF7864435}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C44A83C-789D-46D1-A48B-21ECA29D1448}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guess what" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="146">
   <si>
     <t>AGROUPOFROBOTS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,6 +596,9 @@
   <si>
     <t>&amp;#x1F468;&amp;#x200D;&amp;#x1F9B2;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.freecodecamp.org/news/all-emojis-emoji-list-for-copy-and-paste</t>
   </si>
 </sst>
 </file>
@@ -2273,7 +2276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2310E8ED-A48A-42ED-B901-2B1D8523F852}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
@@ -2566,10 +2569,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71B76EB-1B19-4AE4-966A-82CA255355ED}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2848,6 +2851,11 @@
       </c>
       <c r="K9" s="19"/>
     </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/problems.xlsx
+++ b/problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新元顥22\其他2\20240408 strands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C44A83C-789D-46D1-A48B-21ECA29D1448}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF6DE9F-03FA-4010-9093-25CF38E3BA0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guess what" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Cough cough" sheetId="6" r:id="rId4"/>
     <sheet name="Rolling around" sheetId="8" r:id="rId5"/>
     <sheet name="Tongues" sheetId="10" r:id="rId6"/>
+    <sheet name="1-0 games" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="169">
   <si>
     <t>AGROUPOFROBOTS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -599,13 +600,105 @@
   </si>
   <si>
     <t>https://www.freecodecamp.org/news/all-emojis-emoji-list-for-copy-and-paste</t>
+  </si>
+  <si>
+    <t>baseballteams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orioles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rangers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pirates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brewers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brothers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,6 +738,12 @@
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -722,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -820,6 +919,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,8 +952,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
       <color rgb="FF996633"/>
-      <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2571,7 +2694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71B76EB-1B19-4AE4-966A-82CA255355ED}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -2861,4 +2984,293 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF19B71-FEA2-4620-BB32-8DE4905BBAE8}">
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.09765625" style="18" customWidth="1"/>
+    <col min="2" max="17" width="4" style="18" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="18">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18">
+        <v>1</v>
+      </c>
+      <c r="F1" s="18">
+        <v>2</v>
+      </c>
+      <c r="G1" s="18">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18">
+        <v>4</v>
+      </c>
+      <c r="I1" s="18">
+        <v>5</v>
+      </c>
+      <c r="J1" s="18">
+        <v>6</v>
+      </c>
+      <c r="R1" s="15" t="str">
+        <f>_xlfn.CONCAT(D2:J9)</f>
+        <v>sgsrehtnoareorbsbdtabarealsmopilsrsilorbewresegreatesnar</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="41"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="K3" s="41"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="41"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="18">
+        <v>3</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="41"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="18">
+        <v>4</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="41"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="18">
+        <v>5</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="C8" s="18">
+        <v>6</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="41"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="C9" s="18">
+        <v>7</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" s="41"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/problems.xlsx
+++ b/problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新元顥22\其他2\20240408 strands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF6DE9F-03FA-4010-9093-25CF38E3BA0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E924ACF5-A5A2-419E-8CD2-78B63E6003FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guess what" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Rolling around" sheetId="8" r:id="rId5"/>
     <sheet name="Tongues" sheetId="10" r:id="rId6"/>
     <sheet name="1-0 games" sheetId="11" r:id="rId7"/>
+    <sheet name="Who is it" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="170">
   <si>
     <t>AGROUPOFROBOTS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -630,68 +631,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>l</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>SUSPICIOUS</t>
+  </si>
+  <si>
+    <t>CREWMATE</t>
+  </si>
+  <si>
+    <t>IMPOSTER</t>
+  </si>
+  <si>
+    <t>EJECTED</t>
+  </si>
+  <si>
+    <t>SABOTAGE</t>
+  </si>
+  <si>
+    <t>SKELD</t>
+  </si>
+  <si>
+    <t>MIRAHQ</t>
+  </si>
+  <si>
+    <t>POLUS</t>
+  </si>
+  <si>
+    <t>AIRSHIP</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
@@ -821,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -942,6 +930,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -952,8 +961,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF996633"/>
       <color rgb="FFFF99FF"/>
-      <color rgb="FF996633"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2990,7 +2999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF19B71-FEA2-4620-BB32-8DE4905BBAE8}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
@@ -3028,7 +3037,7 @@
       </c>
       <c r="R1" s="15" t="str">
         <f>_xlfn.CONCAT(D2:J9)</f>
-        <v>sgsrehtnoareorbsbdtabarealsmopilsrsilorbewresegreatesnar</v>
+        <v>SGSREHTNOAREORBSBDTSBAEEALSMOPILSRSILORBEWRESEGREATESNAR</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -3039,25 +3048,25 @@
         <v>0</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="K2" s="41"/>
     </row>
@@ -3069,25 +3078,25 @@
         <v>1</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="K3" s="41"/>
     </row>
@@ -3099,25 +3108,25 @@
         <v>2</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="K4" s="41"/>
     </row>
@@ -3129,25 +3138,25 @@
         <v>3</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="K5" s="41"/>
     </row>
@@ -3159,25 +3168,25 @@
         <v>4</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="K6" s="41"/>
     </row>
@@ -3189,25 +3198,25 @@
         <v>5</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="K7" s="41"/>
       <c r="N7" s="19"/>
@@ -3218,25 +3227,25 @@
         <v>6</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="K8" s="41"/>
     </row>
@@ -3246,27 +3255,341 @@
         <v>7</v>
       </c>
       <c r="D9" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="41"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4A7819-8058-48E2-9FEA-19D11FD6A000}">
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.09765625" style="18" customWidth="1"/>
+    <col min="2" max="17" width="4" style="18" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="18">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18">
+        <v>1</v>
+      </c>
+      <c r="F1" s="18">
+        <v>2</v>
+      </c>
+      <c r="G1" s="18">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18">
+        <v>4</v>
+      </c>
+      <c r="I1" s="18">
+        <v>5</v>
+      </c>
+      <c r="J1" s="18">
+        <v>6</v>
+      </c>
+      <c r="K1" s="18">
+        <v>7</v>
+      </c>
+      <c r="R1" s="15" t="str">
+        <f>_xlfn.CONCAT(D2:K9)</f>
+        <v>DEKSPIHSSLLOSURIMUQSPOAEIHOPTCIGRAMTEEIAWIAEREPTEMCDJSBOCRTESUSA</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="18">
+        <v>3</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="P5" s="44"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="18">
+        <v>4</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="44"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="18">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="K9" s="41"/>
+      <c r="E7" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="18">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="18">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="46" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/problems.xlsx
+++ b/problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新元顥22\其他2\20240408 strands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E924ACF5-A5A2-419E-8CD2-78B63E6003FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AFB54A-B6AF-41E8-AE68-A6A343C20BA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guess what" sheetId="1" r:id="rId1"/>
@@ -2999,7 +2999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF19B71-FEA2-4620-BB32-8DE4905BBAE8}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="R1" s="15" t="str">
         <f>_xlfn.CONCAT(D2:J9)</f>
-        <v>SGSREHTNOAREORBSBDTSBAEEALSMOPILSRSILORBEWRESEGREATESNAR</v>
+        <v>SGSREHTNOAREORBSBDTSBAREALSMOPILSRSILORBEWRESEGREATESNAR</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -3141,7 +3141,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F5" s="35" t="s">
         <v>23</v>
@@ -3288,7 +3288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4A7819-8058-48E2-9FEA-19D11FD6A000}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>

--- a/problems.xlsx
+++ b/problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新元顥22\其他2\20240408 strands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AFB54A-B6AF-41E8-AE68-A6A343C20BA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB2210E-113A-4ED8-917A-D6A5D062ED65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guess what" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Tongues" sheetId="10" r:id="rId6"/>
     <sheet name="1-0 games" sheetId="11" r:id="rId7"/>
     <sheet name="Who is it" sheetId="12" r:id="rId8"/>
+    <sheet name="Hulk" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="177">
   <si>
     <t>AGROUPOFROBOTS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -680,6 +681,34 @@
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>HISTORYTEACHER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STARVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GYMNASIUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUSCULAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STANDING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOLUENE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -961,8 +990,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
       <color rgb="FF996633"/>
-      <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2999,7 +3028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF19B71-FEA2-4620-BB32-8DE4905BBAE8}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
@@ -3596,4 +3625,293 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F54617-C6F6-41A1-876E-7ED0B00811A5}">
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.09765625" style="18" customWidth="1"/>
+    <col min="2" max="17" width="4" style="18" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="18">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18">
+        <v>1</v>
+      </c>
+      <c r="F1" s="18">
+        <v>2</v>
+      </c>
+      <c r="G1" s="18">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18">
+        <v>4</v>
+      </c>
+      <c r="I1" s="18">
+        <v>5</v>
+      </c>
+      <c r="J1" s="18">
+        <v>6</v>
+      </c>
+      <c r="R1" s="15" t="str">
+        <f>_xlfn.CONCAT(D2:J9)</f>
+        <v>TOENHMIRALEIUSVTTUSNAESEYRTMSARALOYTHCUNSGOEUCIGTDRMSDNA</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="44"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="44"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="44"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="18">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="44"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="18">
+        <v>4</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="44"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="18">
+        <v>5</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="N7" s="44"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="C8" s="18">
+        <v>6</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="44"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="C9" s="18">
+        <v>7</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="44"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/problems.xlsx
+++ b/problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新元顥22\其他2\20240408 strands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB2210E-113A-4ED8-917A-D6A5D062ED65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086FB1FA-995E-4857-8635-F70BF79CCA15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guess what" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="1-0 games" sheetId="11" r:id="rId7"/>
     <sheet name="Who is it" sheetId="12" r:id="rId8"/>
     <sheet name="Hulk" sheetId="14" r:id="rId9"/>
+    <sheet name="In my school" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="186">
   <si>
     <t>AGROUPOFROBOTS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -709,13 +710,40 @@
   <si>
     <t>DOTS</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPUTERSCIENCE</t>
+  </si>
+  <si>
+    <t>SYSTEM</t>
+  </si>
+  <si>
+    <t>SOFTWARE</t>
+  </si>
+  <si>
+    <t>NETWORK</t>
+  </si>
+  <si>
+    <t>ALGORITHM</t>
+  </si>
+  <si>
+    <t>PROGRAMMING</t>
+  </si>
+  <si>
+    <t>HOMEWORK</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,8 +791,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="PMingLiu"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -825,6 +860,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor rgb="FFFF99FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF0070C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF00B0F0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -838,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -980,6 +1057,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1274,14 +1372,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.09765625" style="1" customWidth="1"/>
     <col min="2" max="17" width="4" style="1" customWidth="1"/>
     <col min="18" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1412,7 @@
         <v>EBUORSUYLURDFOUOBGRGEOBSAOLORPOSCIBOUSATOCUWSNONRBIAUDLTOBSWWERE</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1346,7 +1444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1378,7 +1476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1410,7 +1508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1442,7 +1540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -1474,7 +1572,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -1507,7 +1605,7 @@
       </c>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1539,7 +1637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
@@ -1569,6 +1667,314 @@
       </c>
       <c r="K9" s="10" t="s">
         <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C5C55A-0C26-4E31-B2F6-D7F15634E54D}">
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="20.09765625" style="18" customWidth="1"/>
+    <col min="2" max="17" width="4" style="18" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="18">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18">
+        <v>1</v>
+      </c>
+      <c r="F1" s="18">
+        <v>2</v>
+      </c>
+      <c r="G1" s="18">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18">
+        <v>4</v>
+      </c>
+      <c r="I1" s="18">
+        <v>5</v>
+      </c>
+      <c r="J1" s="18">
+        <v>6</v>
+      </c>
+      <c r="K1" s="18">
+        <v>7</v>
+      </c>
+      <c r="R1" s="15" t="str">
+        <f>_xlfn.CONCAT(D2:K9)</f>
+        <v>REOOWNCEAFSKRTEKWTGLAEIRROTENCWOIURARSEETMPGMMTMHOMOMOSYCPRGNIHS</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="18">
+        <v>3</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="18">
+        <v>4</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="18">
+        <v>5</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="44"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="11"/>
+      <c r="C8" s="18">
+        <v>6</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="10"/>
+      <c r="C9" s="18">
+        <v>7</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1586,14 +1992,14 @@
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.09765625" style="1" customWidth="1"/>
     <col min="2" max="17" width="4" style="1" customWidth="1"/>
     <col min="18" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -1623,7 +2029,7 @@
         <v>NMARANOOIVLZTHIABAEZPTOSBIUSHTKIXENRIHSNIEANDGLFT</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
@@ -1653,7 +2059,7 @@
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -1683,7 +2089,7 @@
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -1715,7 +2121,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
@@ -1745,7 +2151,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
@@ -1775,7 +2181,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -1806,7 +2212,7 @@
       <c r="K7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="11"/>
       <c r="C8" s="1">
         <v>6</v>
@@ -1834,7 +2240,7 @@
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="10"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1845,7 +2251,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="N10" s="6"/>
     </row>
   </sheetData>
@@ -1863,14 +2269,14 @@
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.09765625" style="1" customWidth="1"/>
     <col min="2" max="17" width="4" style="1" customWidth="1"/>
     <col min="18" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
@@ -1903,7 +2309,7 @@
         <v>NPIHSPLAXOTATRTFIAIERMOSETNONITTKLIPSOYAIEPANNWABYIRUNNUUOPTRLET</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
@@ -1935,7 +2341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="5" t="s">
         <v>42</v>
       </c>
@@ -1967,7 +2373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -1999,7 +2405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="7" t="s">
         <v>44</v>
       </c>
@@ -2032,7 +2438,7 @@
       </c>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="8" t="s">
         <v>45</v>
       </c>
@@ -2064,7 +2470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="9" t="s">
         <v>46</v>
       </c>
@@ -2097,7 +2503,7 @@
       </c>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="11" t="s">
         <v>47</v>
       </c>
@@ -2129,7 +2535,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="10" t="s">
         <v>48</v>
       </c>
@@ -2174,14 +2580,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.09765625" style="13" customWidth="1"/>
     <col min="2" max="17" width="4" style="13" customWidth="1"/>
     <col min="18" max="16384" width="8.796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="14" t="s">
         <v>63</v>
       </c>
@@ -2209,7 +2615,7 @@
         <v>NEUONPMCIOONOSIMAONSIRTUARCILCOPCOLSOSIVCILCO</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="19"/>
       <c r="C2" s="18">
         <v>0</v>
@@ -2233,7 +2639,7 @@
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="19"/>
       <c r="C3" s="18">
         <v>1</v>
@@ -2257,7 +2663,7 @@
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="19"/>
       <c r="C4" s="18">
         <v>2</v>
@@ -2281,7 +2687,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="19"/>
       <c r="C5" s="18">
         <v>3</v>
@@ -2306,7 +2712,7 @@
       <c r="K5" s="19"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="19"/>
       <c r="C6" s="18">
         <v>4</v>
@@ -2330,7 +2736,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="19"/>
       <c r="C7" s="18">
         <v>5</v>
@@ -2355,7 +2761,7 @@
       <c r="K7" s="19"/>
       <c r="N7" s="16"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="19"/>
       <c r="C8" s="18">
         <v>6</v>
@@ -2379,7 +2785,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="19"/>
       <c r="C9" s="18">
         <v>7</v>
@@ -2403,7 +2809,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="C10" s="18">
         <v>8</v>
       </c>
@@ -2441,14 +2847,14 @@
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.09765625" style="18" customWidth="1"/>
     <col min="2" max="17" width="4" style="18" customWidth="1"/>
     <col min="18" max="16384" width="8.796875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="14" t="s">
         <v>71</v>
       </c>
@@ -2475,7 +2881,7 @@
         <v>ㄊㄨVㄉVㄢㄞ/VㄋㄨㄨㄏㄊㄨㄨVㄋㄨㄧVㄆㄢVㄢVㄝㄥㄧㄉVㄎㄨVㄚVㄉㄟVㄓㄊVㄧㄅㄟVㄢㄨㄥVㄆㄨV\</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
         <v>64</v>
       </c>
@@ -2503,7 +2909,7 @@
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="5" t="s">
         <v>65</v>
       </c>
@@ -2531,7 +2937,7 @@
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
@@ -2559,7 +2965,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -2587,7 +2993,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="8" t="s">
         <v>68</v>
       </c>
@@ -2615,7 +3021,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="9" t="s">
         <v>69</v>
       </c>
@@ -2644,7 +3050,7 @@
       <c r="K7" s="19"/>
       <c r="N7" s="19"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="11" t="s">
         <v>70</v>
       </c>
@@ -2672,7 +3078,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="10"/>
       <c r="C9" s="18">
         <v>7</v>
@@ -2698,7 +3104,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="C10" s="18">
         <v>8</v>
       </c>
@@ -2736,14 +3142,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.09765625" style="18" customWidth="1"/>
     <col min="2" max="17" width="4" style="18" customWidth="1"/>
     <col min="18" max="16384" width="8.796875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="14"/>
       <c r="D1" s="18">
         <v>0</v>
@@ -2771,7 +3177,7 @@
         <v>&amp;#x1F7E8','&amp;#x1F300','&amp;#x2B06','&amp;#x1F34D','&amp;#x1F7E8','&amp;#x1F991','&amp;#x1F4B5','&amp;#x1F34D','&amp;#x270C','&amp;#x1F4E6','&amp;#x1F195','&amp;#x1F236','&amp;#x1FAA1','&amp;#x1F6BD','&amp;#x1F947','&amp;#x1F351','&amp;#x2764','&amp;#x1F536','&amp;#x2795','&amp;#x2B06','&amp;#x1F4E6','&amp;#x1F347','&amp;#x1F4B5','&amp;#x1F590','&amp;#x1F98F','&amp;#x1FAA2','&amp;#x1FAA1','&amp;#x1F21A','&amp;#x1F37A','&amp;#x264D','&amp;#x1F947','&amp;#x23FA','&amp;#x1F988','&amp;#x1F41A','&amp;#x1F595','&amp;#x1F343','&amp;#x1F46C','&amp;#x1FAA0','&amp;#x1F409','&amp;#x1F914','&amp;#x1F46B','&amp;#x270F','&amp;#x1F526','&amp;#x1F964','&amp;#x1F319','&amp;#x1F48D','&amp;#x1F469;&amp;#x200D;&amp;#x2764;&amp;#xFE0F;&amp;#x200D;&amp;#x1F48B;&amp;#x200D;&amp;#x1F468;','&amp;#x1F381','&amp;#x1F9DF;&amp;#x200D;&amp;#x2642;&amp;#xFE0F;','&amp;#x1F6AC','&amp;#x1F3EE','&amp;#x1F468;&amp;#x200D;&amp;#x1F9B2;','&amp;#x1F4A7','&amp;#x2600','&amp;#x1F947','&amp;#x1F536</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
         <v>90</v>
       </c>
@@ -2801,7 +3207,7 @@
       </c>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="5" t="s">
         <v>91</v>
       </c>
@@ -2831,7 +3237,7 @@
       </c>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
@@ -2861,7 +3267,7 @@
       </c>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="7" t="s">
         <v>93</v>
       </c>
@@ -2891,7 +3297,7 @@
       </c>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="8" t="s">
         <v>94</v>
       </c>
@@ -2921,7 +3327,7 @@
       </c>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="9" t="s">
         <v>95</v>
       </c>
@@ -2952,7 +3358,7 @@
       <c r="K7" s="19"/>
       <c r="N7" s="19"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="11" t="s">
         <v>96</v>
       </c>
@@ -2982,7 +3388,7 @@
       </c>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="10" t="s">
         <v>97</v>
       </c>
@@ -3012,7 +3418,7 @@
       </c>
       <c r="K9" s="19"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="15" t="s">
         <v>145</v>
       </c>
@@ -3032,14 +3438,14 @@
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.09765625" style="18" customWidth="1"/>
     <col min="2" max="17" width="4" style="18" customWidth="1"/>
     <col min="18" max="16384" width="8.796875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="14" t="s">
         <v>146</v>
       </c>
@@ -3069,7 +3475,7 @@
         <v>SGSREHTNOAREORBSBDTSBAREALSMOPILSRSILORBEWRESEGREATESNAR</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
         <v>152</v>
       </c>
@@ -3099,7 +3505,7 @@
       </c>
       <c r="K2" s="41"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="5" t="s">
         <v>149</v>
       </c>
@@ -3129,7 +3535,7 @@
       </c>
       <c r="K3" s="41"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
         <v>148</v>
       </c>
@@ -3159,7 +3565,7 @@
       </c>
       <c r="K4" s="41"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="7" t="s">
         <v>150</v>
       </c>
@@ -3189,7 +3595,7 @@
       </c>
       <c r="K5" s="41"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="8" t="s">
         <v>151</v>
       </c>
@@ -3219,7 +3625,7 @@
       </c>
       <c r="K6" s="41"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="9" t="s">
         <v>147</v>
       </c>
@@ -3250,7 +3656,7 @@
       <c r="K7" s="41"/>
       <c r="N7" s="19"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="11"/>
       <c r="C8" s="18">
         <v>6</v>
@@ -3278,7 +3684,7 @@
       </c>
       <c r="K8" s="41"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="10"/>
       <c r="C9" s="18">
         <v>7</v>
@@ -3321,14 +3727,14 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.09765625" style="18" customWidth="1"/>
     <col min="2" max="17" width="4" style="18" customWidth="1"/>
     <col min="18" max="16384" width="8.796875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="14" t="s">
         <v>158</v>
       </c>
@@ -3361,7 +3767,7 @@
         <v>DEKSPIHSSLLOSURIMUQSPOAEIHOPTCIGRAMTEEIAWIAEREPTEMCDJSBOCRTESUSA</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
         <v>159</v>
       </c>
@@ -3393,7 +3799,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="5" t="s">
         <v>160</v>
       </c>
@@ -3425,7 +3831,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
         <v>161</v>
       </c>
@@ -3457,7 +3863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="7" t="s">
         <v>162</v>
       </c>
@@ -3490,7 +3896,7 @@
       </c>
       <c r="P5" s="44"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="8" t="s">
         <v>163</v>
       </c>
@@ -3523,7 +3929,7 @@
       </c>
       <c r="N6" s="44"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="9" t="s">
         <v>164</v>
       </c>
@@ -3556,7 +3962,7 @@
       </c>
       <c r="N7" s="19"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="11" t="s">
         <v>165</v>
       </c>
@@ -3588,7 +3994,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="10" t="s">
         <v>166</v>
       </c>
@@ -3631,18 +4037,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F54617-C6F6-41A1-876E-7ED0B00811A5}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.09765625" style="18" customWidth="1"/>
     <col min="2" max="17" width="4" style="18" customWidth="1"/>
     <col min="18" max="16384" width="8.796875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="47" t="s">
         <v>170</v>
       </c>
@@ -3672,7 +4078,7 @@
         <v>TOENHMIRALEIUSVTTUSNAESEYRTMSARALOYTHCUNSGOEUCIGTDRMSDNA</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
         <v>171</v>
       </c>
@@ -3702,7 +4108,7 @@
       </c>
       <c r="K2" s="44"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="42" t="s">
         <v>172</v>
       </c>
@@ -3732,7 +4138,7 @@
       </c>
       <c r="K3" s="44"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="43" t="s">
         <v>173</v>
       </c>
@@ -3762,7 +4168,7 @@
       </c>
       <c r="K4" s="44"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="46" t="s">
         <v>174</v>
       </c>
@@ -3792,7 +4198,7 @@
       </c>
       <c r="K5" s="44"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="48" t="s">
         <v>175</v>
       </c>
@@ -3822,7 +4228,7 @@
       </c>
       <c r="K6" s="44"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="45" t="s">
         <v>176</v>
       </c>
@@ -3853,7 +4259,7 @@
       <c r="K7" s="44"/>
       <c r="N7" s="44"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="11"/>
       <c r="C8" s="18">
         <v>6</v>
@@ -3881,7 +4287,7 @@
       </c>
       <c r="K8" s="44"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="10"/>
       <c r="C9" s="18">
         <v>7</v>

--- a/problems.xlsx
+++ b/problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新元顥22\其他2\20240408 strands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086FB1FA-995E-4857-8635-F70BF79CCA15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F8BD24-030E-4CA6-910A-A97DFA88C1AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guess what" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="Who is it" sheetId="12" r:id="rId8"/>
     <sheet name="Hulk" sheetId="14" r:id="rId9"/>
     <sheet name="In my school" sheetId="15" r:id="rId10"/>
+    <sheet name="Looks familiar" sheetId="16" r:id="rId11"/>
+    <sheet name="this_is_the_answer" sheetId="17" r:id="rId12"/>
+    <sheet name="Annoying things" sheetId="18" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="203">
   <si>
     <t>AGROUPOFROBOTS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -737,13 +740,64 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>TWENTYQUESTIONS</t>
+  </si>
+  <si>
+    <t>EXAM</t>
+  </si>
+  <si>
+    <t>JOKE</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>RAINBOW</t>
+  </si>
+  <si>
+    <t>MIRACLE</t>
+  </si>
+  <si>
+    <t>LANTERN</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>593816DC7AFDA9793F263F10DE3595C290899B31A0B875E28EE8F829F50CDCE9</t>
+  </si>
+  <si>
+    <t>MISSPELL</t>
+  </si>
+  <si>
+    <t>FORTY</t>
+  </si>
+  <si>
+    <t>RECEIVE</t>
+  </si>
+  <si>
+    <t>CALENDER</t>
+  </si>
+  <si>
+    <t>FEBRUARY</t>
+  </si>
+  <si>
+    <t>EMBARRASS</t>
+  </si>
+  <si>
+    <t>CONSENSUS</t>
+  </si>
+  <si>
+    <t>DEFINITELY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,6 +848,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="PMingLiu"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="PMingLiu"/>
       <family val="1"/>
       <charset val="136"/>
@@ -903,7 +964,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -911,11 +972,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1079,6 +1155,55 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1680,7 +1805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C5C55A-0C26-4E31-B2F6-D7F15634E54D}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
@@ -1975,6 +2100,884 @@
       </c>
       <c r="K9" s="50" t="s">
         <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A35F27-04EA-4FE1-95CD-16CE8E067528}">
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="20.09765625" style="18" customWidth="1"/>
+    <col min="2" max="17" width="4" style="18" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15" thickBot="1">
+      <c r="A1" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="18">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18">
+        <v>1</v>
+      </c>
+      <c r="F1" s="18">
+        <v>2</v>
+      </c>
+      <c r="G1" s="18">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18">
+        <v>4</v>
+      </c>
+      <c r="I1" s="18">
+        <v>5</v>
+      </c>
+      <c r="J1" s="18">
+        <v>6</v>
+      </c>
+      <c r="R1" s="15" t="str">
+        <f>_xlfn.CONCAT(D2:J8)</f>
+        <v>MTRIWOEASIANBLXEUONCARETQSIRONEYTJMRARNNTOERLEWEK</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1">
+      <c r="A2" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="70"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickBot="1">
+      <c r="A3" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="70"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" thickBot="1">
+      <c r="A4" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="70"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" thickBot="1">
+      <c r="A5" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="18">
+        <v>3</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="70"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickBot="1">
+      <c r="A6" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="18">
+        <v>4</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="70"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" thickBot="1">
+      <c r="A7" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="18">
+        <v>5</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="70"/>
+      <c r="N7" s="44"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" thickBot="1">
+      <c r="A8" s="11"/>
+      <c r="C8" s="18">
+        <v>6</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="70"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="10"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E04E29C-D207-486D-A8B2-4D00A4FADB1D}">
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="20.09765625" style="18" customWidth="1"/>
+    <col min="2" max="17" width="4" style="18" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15" thickBot="1">
+      <c r="A1" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="18">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18">
+        <v>1</v>
+      </c>
+      <c r="F1" s="18">
+        <v>2</v>
+      </c>
+      <c r="G1" s="18">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18">
+        <v>4</v>
+      </c>
+      <c r="I1" s="18">
+        <v>5</v>
+      </c>
+      <c r="J1" s="18">
+        <v>6</v>
+      </c>
+      <c r="K1" s="18">
+        <v>7</v>
+      </c>
+      <c r="R1" s="15" t="str">
+        <f>_xlfn.CONCAT(D2:K9)</f>
+        <v>593816DC979ADFA73F263F102C5953ED90899B312E578B0A8EE8F8299ECDC05F</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1">
+      <c r="A2" s="50"/>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+      <c r="D2" s="56">
+        <v>5</v>
+      </c>
+      <c r="E2" s="56">
+        <v>9</v>
+      </c>
+      <c r="F2" s="56">
+        <v>3</v>
+      </c>
+      <c r="G2" s="56">
+        <v>8</v>
+      </c>
+      <c r="H2" s="56">
+        <v>1</v>
+      </c>
+      <c r="I2" s="56">
+        <v>6</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="56">
+        <v>9</v>
+      </c>
+      <c r="E3" s="56">
+        <v>7</v>
+      </c>
+      <c r="F3" s="56">
+        <v>9</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" thickBot="1">
+      <c r="A4" s="52"/>
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+      <c r="D4" s="56">
+        <v>3</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="56">
+        <v>2</v>
+      </c>
+      <c r="G4" s="56">
+        <v>6</v>
+      </c>
+      <c r="H4" s="56">
+        <v>3</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4" s="56">
+        <v>1</v>
+      </c>
+      <c r="K4" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" thickBot="1">
+      <c r="A5" s="53"/>
+      <c r="C5" s="18">
+        <v>3</v>
+      </c>
+      <c r="D5" s="56">
+        <v>2</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="56">
+        <v>5</v>
+      </c>
+      <c r="G5" s="56">
+        <v>9</v>
+      </c>
+      <c r="H5" s="56">
+        <v>5</v>
+      </c>
+      <c r="I5" s="56">
+        <v>3</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickBot="1">
+      <c r="A6" s="54"/>
+      <c r="C6" s="18">
+        <v>4</v>
+      </c>
+      <c r="D6" s="56">
+        <v>9</v>
+      </c>
+      <c r="E6" s="56">
+        <v>0</v>
+      </c>
+      <c r="F6" s="56">
+        <v>8</v>
+      </c>
+      <c r="G6" s="56">
+        <v>9</v>
+      </c>
+      <c r="H6" s="56">
+        <v>9</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" s="56">
+        <v>3</v>
+      </c>
+      <c r="K6" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" thickBot="1">
+      <c r="A7" s="55"/>
+      <c r="C7" s="18">
+        <v>5</v>
+      </c>
+      <c r="D7" s="56">
+        <v>2</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="56">
+        <v>5</v>
+      </c>
+      <c r="G7" s="56">
+        <v>7</v>
+      </c>
+      <c r="H7" s="56">
+        <v>8</v>
+      </c>
+      <c r="I7" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" s="56">
+        <v>0</v>
+      </c>
+      <c r="K7" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="44"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" thickBot="1">
+      <c r="A8" s="11"/>
+      <c r="C8" s="18">
+        <v>6</v>
+      </c>
+      <c r="D8" s="56">
+        <v>8</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="56">
+        <v>8</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="I8" s="56">
+        <v>8</v>
+      </c>
+      <c r="J8" s="56">
+        <v>2</v>
+      </c>
+      <c r="K8" s="56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" thickBot="1">
+      <c r="A9" s="10"/>
+      <c r="C9" s="18">
+        <v>7</v>
+      </c>
+      <c r="D9" s="56">
+        <v>9</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="56">
+        <v>0</v>
+      </c>
+      <c r="J9" s="56">
+        <v>5</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344EDCC1-2036-4505-8E2F-74715327B6FF}">
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="20.09765625" style="18" customWidth="1"/>
+    <col min="2" max="17" width="4" style="18" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15" thickBot="1">
+      <c r="A1" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="18">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18">
+        <v>1</v>
+      </c>
+      <c r="F1" s="18">
+        <v>2</v>
+      </c>
+      <c r="G1" s="18">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18">
+        <v>4</v>
+      </c>
+      <c r="I1" s="18">
+        <v>5</v>
+      </c>
+      <c r="J1" s="18">
+        <v>6</v>
+      </c>
+      <c r="K1" s="18">
+        <v>7</v>
+      </c>
+      <c r="R1" s="15" t="str">
+        <f>_xlfn.CONCAT(D2:K9)</f>
+        <v>RECONSUSECIERSNYACVBUERLLDEREALNENSSFEIIMIMEPFATORBDERSEFTYARSYL</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1">
+      <c r="A2" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickBot="1">
+      <c r="A3" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" thickBot="1">
+      <c r="A4" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" thickBot="1">
+      <c r="A5" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="18">
+        <v>3</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickBot="1">
+      <c r="A6" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="18">
+        <v>4</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="72" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" thickBot="1">
+      <c r="A7" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="18">
+        <v>5</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="44"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" thickBot="1">
+      <c r="A8" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="18">
+        <v>6</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" thickBot="1">
+      <c r="A9" s="10"/>
+      <c r="C9" s="18">
+        <v>7</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="K9" s="72" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/problems.xlsx
+++ b/problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新元顥22\其他2\20240408 strands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F8BD24-030E-4CA6-910A-A97DFA88C1AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DD1CDF-F4AB-4AA5-9DEE-0FC5A9975DC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="204">
   <si>
     <t>AGROUPOFROBOTS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -791,6 +791,10 @@
   </si>
   <si>
     <t>DEFINITELY</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2682,7 +2686,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2722,7 +2726,7 @@
       </c>
       <c r="R1" s="15" t="str">
         <f>_xlfn.CONCAT(D2:K9)</f>
-        <v>RECONSUSECIERSNYACVBUERLLDEREALNENSSFEIIMIMEPFATORBDERSEFTYARSYL</v>
+        <v>RECONSUSECIERSNYACVBUERLLDAREALNENSSFEIIMIMEPFATORBDERSEFTYARSYL</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1">
@@ -2835,7 +2839,7 @@
         <v>156</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="G5" s="59" t="s">
         <v>52</v>
